--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_19-12.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_19-12.xlsx
@@ -188,6 +188,12 @@
     <t>HIBIOTIC 625MG 16 TAB.</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -260,10 +266,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-20:0</t>
-  </si>
-  <si>
-    <t>26:0</t>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>فرش اسنان HASI</t>
@@ -1848,11 +1854,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1868,17 +1874,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>540</v>
+        <v>39</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1886,7 +1892,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1894,17 +1900,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>48</v>
+        <v>540</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1920,17 +1926,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1938,7 +1944,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1946,17 +1952,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1964,7 +1970,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1972,17 +1978,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1998,17 +2004,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2016,7 +2022,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2024,17 +2030,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2042,7 +2048,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2050,13 +2056,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2082,11 +2088,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>30.07</v>
+        <v>75</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2102,17 +2108,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>18</v>
+        <v>30.07</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2120,7 +2126,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2128,17 +2134,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2154,17 +2160,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2172,7 +2178,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2180,17 +2186,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2206,13 +2212,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2224,7 +2230,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2232,13 +2238,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2250,7 +2256,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2258,17 +2264,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>51.600000000000001</v>
+        <v>30</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2276,7 +2282,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2284,17 +2290,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>70</v>
+        <v>55.600000000000001</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2302,7 +2308,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2310,17 +2316,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2342,7 +2348,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2362,13 +2368,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2380,7 +2386,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2388,13 +2394,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>35</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2406,7 +2412,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2414,51 +2420,77 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="K64" s="10">
-        <v>4299.46</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="11">
-        <v>93</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c t="s" r="F65" s="12">
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
         <v>94</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="13"/>
-      <c t="s" r="I65" s="14">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
+        <v>73</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>30</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c t="s" r="N64" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" ht="26.25" customHeight="1">
+      <c r="K65" s="10">
+        <v>4327.46</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="11">
         <v>95</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c t="s" r="F66" s="12">
+        <v>96</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
+      <c t="s" r="I66" s="14">
+        <v>97</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="194">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2646,10 +2678,13 @@
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="I65:N65"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:N66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
